--- a/farmServer/src/main/resources/config/Structure.xlsx
+++ b/farmServer/src/main/resources/config/Structure.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18827"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\项目空间\农场\farmServer\farmServer\src\main\resources\config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Davion\Desktop\农场finaliii\配置表\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21540" windowHeight="9636"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21540" windowHeight="9630"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -58,18 +58,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>stType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ndType</t>
+    <t>2ndType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1stType</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -396,12 +396,12 @@
   <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -412,10 +412,10 @@
         <v>5</v>
       </c>
       <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
         <v>8</v>
-      </c>
-      <c r="E1" t="s">
-        <v>9</v>
       </c>
       <c r="F1" t="s">
         <v>7</v>
